--- a/xequiposclasif.xlsx
+++ b/xequiposclasif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\ARG_OPT_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C20533-4694-4CF5-B989-4C5592B9E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDFFB25-35FD-4BCB-A708-3BC1D2AE7EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$2:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$I$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="427">
   <si>
     <t>Rank</t>
   </si>
@@ -1474,7 +1474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1652,12 +1652,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1882,10 +1876,38 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1898,33 +1920,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1939,7 +1935,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1995,7 +1991,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,10 +2022,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6098,10 +6093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H18"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6136,10 +6131,10 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="10">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3">
@@ -6155,15 +6150,15 @@
         <v>62</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H18" si="0">SUM(D3:G3)</f>
+        <f t="shared" ref="H3:H14" si="0">SUM(D3:G3)</f>
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3">
@@ -6184,10 +6179,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
@@ -6208,10 +6203,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="3">
@@ -6232,10 +6227,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
@@ -6256,10 +6251,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
@@ -6280,10 +6275,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3">
@@ -6304,10 +6299,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="3">
@@ -6328,10 +6323,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="3">
@@ -6352,10 +6347,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="3">
@@ -6376,10 +6371,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="3">
@@ -6400,248 +6395,128 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>10</v>
+      <c r="C14" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D14" s="3">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E14" s="3">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="F14" s="3">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G14" s="3">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>39</v>
+      <c r="C15" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D15" s="3">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F15" s="3">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="G15" s="3">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>522</v>
+        <f>SUM(D15:G15)</f>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>107</v>
+      <c r="C16" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D16" s="3">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="E16" s="3">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="F16" s="3">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="G16" s="3">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>593</v>
+        <f>SUM(D16:G16)</f>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="13">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>116</v>
+      <c r="C17" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="D17" s="3">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="E17" s="3">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="F17" s="3">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="G17" s="3">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+        <f>SUM(D17:G17)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="3">
-        <v>85</v>
-      </c>
-      <c r="E18" s="3">
-        <v>115</v>
-      </c>
-      <c r="F18" s="3">
-        <v>219</v>
-      </c>
-      <c r="G18" s="3">
-        <v>325</v>
-      </c>
-      <c r="H18" s="7">
-        <f>SUM(D18:G18)</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D19" s="3">
-        <v>151</v>
-      </c>
-      <c r="E19" s="3">
-        <v>201</v>
-      </c>
-      <c r="F19" s="3">
-        <v>216</v>
-      </c>
-      <c r="G19" s="3">
-        <v>228</v>
-      </c>
-      <c r="H19" s="7">
-        <f>SUM(D19:G19)</f>
-        <v>796</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="3">
-        <v>151</v>
-      </c>
-      <c r="E20" s="3">
-        <v>201</v>
-      </c>
-      <c r="F20" s="3">
-        <v>216</v>
-      </c>
-      <c r="G20" s="3">
-        <v>230</v>
-      </c>
-      <c r="H20" s="7">
-        <f>SUM(D20:G20)</f>
-        <v>798</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="3">
-        <v>206</v>
-      </c>
-      <c r="E21" s="3">
-        <v>229</v>
-      </c>
-      <c r="F21" s="3">
-        <v>239</v>
-      </c>
-      <c r="G21" s="3">
-        <v>244</v>
-      </c>
-      <c r="H21" s="7">
-        <f>SUM(D21:G21)</f>
-        <v>918</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
-        <v>20</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="3">
-        <v>251</v>
-      </c>
-      <c r="E22" s="3">
-        <v>252</v>
-      </c>
-      <c r="F22" s="3">
-        <v>282</v>
-      </c>
-      <c r="G22" s="3">
-        <v>289</v>
-      </c>
-      <c r="H22" s="7">
-        <f>SUM(D22:G22)</f>
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
-        <v>21</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D18" s="8">
         <v>97</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E18" s="8">
         <v>144</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F18" s="8">
         <v>197</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G18" s="8">
         <v>267</v>
       </c>
-      <c r="H23" s="9">
-        <f t="shared" ref="H23" si="1">SUM(D23:G23)</f>
+      <c r="H18" s="9">
+        <f t="shared" ref="H18" si="1">SUM(D18:G18)</f>
         <v>705</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:H23">
-    <sortCondition ref="H3:H23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:H18">
+    <sortCondition ref="H3:H18"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
